--- a/Team-Data/2013-14/4-6-2013-14.xlsx
+++ b/Team-Data/2013-14/4-6-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,28 +733,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
         <v>42</v>
       </c>
       <c r="G2" t="n">
-        <v>0.447</v>
+        <v>0.44</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
       </c>
       <c r="I2" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J2" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L2" t="n">
         <v>9.5</v>
@@ -696,7 +763,7 @@
         <v>25.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0.368</v>
+        <v>0.367</v>
       </c>
       <c r="O2" t="n">
         <v>16.9</v>
@@ -711,13 +778,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="T2" t="n">
         <v>39.9</v>
       </c>
       <c r="U2" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="V2" t="n">
         <v>15.4</v>
@@ -726,25 +793,25 @@
         <v>8.300000000000001</v>
       </c>
       <c r="X2" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y2" t="n">
         <v>4.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AB2" t="n">
         <v>101.1</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.8</v>
+        <v>-1.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE2" t="n">
         <v>18</v>
@@ -765,7 +832,7 @@
         <v>24</v>
       </c>
       <c r="AK2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL2" t="n">
         <v>1</v>
@@ -789,7 +856,7 @@
         <v>28</v>
       </c>
       <c r="AS2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT2" t="n">
         <v>28</v>
@@ -798,10 +865,10 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX2" t="n">
         <v>26</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-6-2013-14</t>
+          <t>2014-04-06</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-4.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
         <v>27</v>
@@ -938,7 +1005,7 @@
         <v>27</v>
       </c>
       <c r="AH3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI3" t="n">
         <v>24</v>
@@ -968,7 +1035,7 @@
         <v>10</v>
       </c>
       <c r="AR3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS3" t="n">
         <v>24</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-6-2013-14</t>
+          <t>2014-04-06</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-0.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AE4" t="n">
         <v>14</v>
@@ -1120,7 +1187,7 @@
         <v>14</v>
       </c>
       <c r="AH4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI4" t="n">
         <v>27</v>
@@ -1129,7 +1196,7 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL4" t="n">
         <v>9</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-6-2013-14</t>
+          <t>2014-04-06</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-0.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE5" t="n">
         <v>16</v>
@@ -1302,7 +1369,7 @@
         <v>16</v>
       </c>
       <c r="AH5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI5" t="n">
         <v>25</v>
@@ -1320,7 +1387,7 @@
         <v>27</v>
       </c>
       <c r="AN5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO5" t="n">
         <v>14</v>
@@ -1362,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="BB5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC5" t="n">
         <v>16</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-6-2013-14</t>
+          <t>2014-04-06</t>
         </is>
       </c>
     </row>
@@ -1472,16 +1539,16 @@
         <v>1.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
         <v>5</v>
@@ -1520,19 +1587,19 @@
         <v>9</v>
       </c>
       <c r="AT6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU6" t="n">
         <v>11</v>
       </c>
       <c r="AV6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW6" t="n">
         <v>21</v>
       </c>
       <c r="AX6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY6" t="n">
         <v>28</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-6-2013-14</t>
+          <t>2014-04-06</t>
         </is>
       </c>
     </row>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-6-2013-14</t>
+          <t>2014-04-06</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" t="n">
         <v>31</v>
       </c>
       <c r="G8" t="n">
-        <v>0.603</v>
+        <v>0.597</v>
       </c>
       <c r="H8" t="n">
         <v>48.3</v>
@@ -1779,43 +1846,43 @@
         <v>83.7</v>
       </c>
       <c r="K8" t="n">
-        <v>0.473</v>
+        <v>0.474</v>
       </c>
       <c r="L8" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="M8" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.385</v>
+        <v>0.384</v>
       </c>
       <c r="O8" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="P8" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.796</v>
+        <v>0.798</v>
       </c>
       <c r="R8" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S8" t="n">
         <v>30.7</v>
       </c>
       <c r="T8" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="U8" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="V8" t="n">
         <v>13.6</v>
       </c>
       <c r="W8" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X8" t="n">
         <v>4.3</v>
@@ -1827,16 +1894,16 @@
         <v>20.1</v>
       </c>
       <c r="AA8" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB8" t="n">
-        <v>105.1</v>
+        <v>105.2</v>
       </c>
       <c r="AC8" t="n">
         <v>2.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1854,7 +1921,7 @@
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
         <v>4</v>
@@ -1866,7 +1933,7 @@
         <v>12</v>
       </c>
       <c r="AN8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO8" t="n">
         <v>16</v>
@@ -1881,10 +1948,10 @@
         <v>22</v>
       </c>
       <c r="AS8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU8" t="n">
         <v>6</v>
@@ -1893,16 +1960,16 @@
         <v>4</v>
       </c>
       <c r="AW8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX8" t="n">
         <v>21</v>
       </c>
       <c r="AY8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA8" t="n">
         <v>20</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-6-2013-14</t>
+          <t>2014-04-06</t>
         </is>
       </c>
     </row>
@@ -1940,25 +2007,25 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E9" t="n">
         <v>33</v>
       </c>
       <c r="F9" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" t="n">
-        <v>0.429</v>
+        <v>0.434</v>
       </c>
       <c r="H9" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="I9" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="J9" t="n">
-        <v>85.5</v>
+        <v>85.3</v>
       </c>
       <c r="K9" t="n">
         <v>0.448</v>
@@ -1967,34 +2034,34 @@
         <v>8.5</v>
       </c>
       <c r="M9" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="N9" t="n">
-        <v>0.363</v>
+        <v>0.361</v>
       </c>
       <c r="O9" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="P9" t="n">
-        <v>26.3</v>
+        <v>26.5</v>
       </c>
       <c r="Q9" t="n">
         <v>0.72</v>
       </c>
       <c r="R9" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S9" t="n">
         <v>33</v>
       </c>
       <c r="T9" t="n">
-        <v>45.2</v>
+        <v>45.1</v>
       </c>
       <c r="U9" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V9" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="W9" t="n">
         <v>7.5</v>
@@ -2003,25 +2070,25 @@
         <v>5.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z9" t="n">
         <v>23</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>104.1</v>
+        <v>103.9</v>
       </c>
       <c r="AC9" t="n">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AE9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF9" t="n">
         <v>19</v>
@@ -2030,7 +2097,7 @@
         <v>19</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI9" t="n">
         <v>12</v>
@@ -2039,10 +2106,10 @@
         <v>5</v>
       </c>
       <c r="AK9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM9" t="n">
         <v>9</v>
@@ -2060,13 +2127,13 @@
         <v>27</v>
       </c>
       <c r="AR9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS9" t="n">
         <v>8</v>
       </c>
       <c r="AT9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AU9" t="n">
         <v>12</v>
@@ -2075,13 +2142,13 @@
         <v>28</v>
       </c>
       <c r="AW9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ9" t="n">
         <v>30</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-6-2013-14</t>
+          <t>2014-04-06</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2212,7 +2279,7 @@
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI10" t="n">
         <v>7</v>
@@ -2221,7 +2288,7 @@
         <v>4</v>
       </c>
       <c r="AK10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL10" t="n">
         <v>26</v>
@@ -2248,7 +2315,7 @@
         <v>21</v>
       </c>
       <c r="AT10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU10" t="n">
         <v>21</v>
@@ -2269,7 +2336,7 @@
         <v>12</v>
       </c>
       <c r="BA10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB10" t="n">
         <v>14</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-6-2013-14</t>
+          <t>2014-04-06</t>
         </is>
       </c>
     </row>
@@ -2304,49 +2371,49 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E11" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" t="n">
         <v>29</v>
       </c>
       <c r="G11" t="n">
-        <v>0.623</v>
+        <v>0.618</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="J11" t="n">
-        <v>85</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.461</v>
+        <v>0.459</v>
       </c>
       <c r="L11" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M11" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="N11" t="n">
-        <v>0.378</v>
+        <v>0.375</v>
       </c>
       <c r="O11" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="P11" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.754</v>
+        <v>0.753</v>
       </c>
       <c r="R11" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S11" t="n">
         <v>34.3</v>
@@ -2355,7 +2422,7 @@
         <v>45.3</v>
       </c>
       <c r="U11" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="V11" t="n">
         <v>15.2</v>
@@ -2367,7 +2434,7 @@
         <v>5.1</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z11" t="n">
         <v>21.7</v>
@@ -2376,13 +2443,13 @@
         <v>19.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>103.6</v>
+        <v>103.2</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2394,16 +2461,16 @@
         <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AJ11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AL11" t="n">
         <v>7</v>
@@ -2424,7 +2491,7 @@
         <v>19</v>
       </c>
       <c r="AR11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
@@ -2433,13 +2500,13 @@
         <v>2</v>
       </c>
       <c r="AU11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
         <v>21</v>
       </c>
       <c r="AW11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX11" t="n">
         <v>10</v>
@@ -2451,13 +2518,13 @@
         <v>21</v>
       </c>
       <c r="BA11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB11" t="n">
         <v>10</v>
       </c>
       <c r="BC11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-6-2013-14</t>
+          <t>2014-04-06</t>
         </is>
       </c>
     </row>
@@ -2486,64 +2553,64 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F12" t="n">
         <v>25</v>
       </c>
       <c r="G12" t="n">
-        <v>0.671</v>
+        <v>0.667</v>
       </c>
       <c r="H12" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="J12" t="n">
-        <v>80.09999999999999</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K12" t="n">
         <v>0.473</v>
       </c>
       <c r="L12" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M12" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="N12" t="n">
         <v>0.355</v>
       </c>
       <c r="O12" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="P12" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="Q12" t="n">
         <v>0.707</v>
       </c>
       <c r="R12" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S12" t="n">
         <v>34</v>
       </c>
       <c r="T12" t="n">
-        <v>45.2</v>
+        <v>45.1</v>
       </c>
       <c r="U12" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V12" t="n">
         <v>16.3</v>
       </c>
       <c r="W12" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X12" t="n">
         <v>5.6</v>
@@ -2558,37 +2625,37 @@
         <v>24.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>107.1</v>
+        <v>106.8</v>
       </c>
       <c r="AC12" t="n">
         <v>4.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE12" t="n">
         <v>6</v>
       </c>
       <c r="AF12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG12" t="n">
         <v>6</v>
       </c>
       <c r="AH12" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AI12" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ12" t="n">
         <v>28</v>
       </c>
       <c r="AK12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM12" t="n">
         <v>1</v>
@@ -2612,19 +2679,19 @@
         <v>5</v>
       </c>
       <c r="AT12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY12" t="n">
         <v>22</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-6-2013-14</t>
+          <t>2014-04-06</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E13" t="n">
         <v>53</v>
       </c>
       <c r="F13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13" t="n">
-        <v>0.679</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
@@ -2698,28 +2765,28 @@
         <v>18.7</v>
       </c>
       <c r="N13" t="n">
-        <v>0.35</v>
+        <v>0.351</v>
       </c>
       <c r="O13" t="n">
         <v>18.4</v>
       </c>
       <c r="P13" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.781</v>
+        <v>0.783</v>
       </c>
       <c r="R13" t="n">
         <v>10.2</v>
       </c>
       <c r="S13" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="T13" t="n">
-        <v>44.8</v>
+        <v>44.9</v>
       </c>
       <c r="U13" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="V13" t="n">
         <v>15.1</v>
@@ -2728,25 +2795,25 @@
         <v>6.8</v>
       </c>
       <c r="X13" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y13" t="n">
         <v>4.6</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AA13" t="n">
         <v>21.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE13" t="n">
         <v>4</v>
@@ -2758,7 +2825,7 @@
         <v>5</v>
       </c>
       <c r="AH13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI13" t="n">
         <v>26</v>
@@ -2776,19 +2843,19 @@
         <v>25</v>
       </c>
       <c r="AN13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO13" t="n">
         <v>11</v>
       </c>
       <c r="AP13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS13" t="n">
         <v>1</v>
@@ -2800,16 +2867,16 @@
         <v>28</v>
       </c>
       <c r="AV13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW13" t="n">
         <v>27</v>
       </c>
       <c r="AX13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ13" t="n">
         <v>14</v>
@@ -2818,10 +2885,10 @@
         <v>6</v>
       </c>
       <c r="BB13" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BC13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-6-2013-14</t>
+          <t>2014-04-06</t>
         </is>
       </c>
     </row>
@@ -2850,28 +2917,28 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E14" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" t="n">
         <v>23</v>
       </c>
       <c r="G14" t="n">
-        <v>0.705</v>
+        <v>0.701</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
       </c>
       <c r="I14" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="J14" t="n">
         <v>82.40000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.475</v>
+        <v>0.474</v>
       </c>
       <c r="L14" t="n">
         <v>8.4</v>
@@ -2880,25 +2947,25 @@
         <v>23.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.354</v>
+        <v>0.352</v>
       </c>
       <c r="O14" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="P14" t="n">
         <v>28.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.731</v>
+        <v>0.733</v>
       </c>
       <c r="R14" t="n">
         <v>10.5</v>
       </c>
       <c r="S14" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T14" t="n">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="U14" t="n">
         <v>24.5</v>
@@ -2907,31 +2974,31 @@
         <v>13.9</v>
       </c>
       <c r="W14" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="X14" t="n">
         <v>4.8</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.8</v>
+        <v>107.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF14" t="n">
         <v>3</v>
@@ -2940,7 +3007,7 @@
         <v>3</v>
       </c>
       <c r="AH14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
@@ -2958,7 +3025,7 @@
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO14" t="n">
         <v>3</v>
@@ -2967,13 +3034,13 @@
         <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR14" t="n">
         <v>21</v>
       </c>
       <c r="AS14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT14" t="n">
         <v>15</v>
@@ -2982,10 +3049,10 @@
         <v>3</v>
       </c>
       <c r="AV14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX14" t="n">
         <v>13</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-6-2013-14</t>
+          <t>2014-04-06</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E15" t="n">
         <v>25</v>
       </c>
       <c r="F15" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G15" t="n">
-        <v>0.325</v>
+        <v>0.329</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
@@ -3056,16 +3123,16 @@
         <v>0.449</v>
       </c>
       <c r="L15" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="M15" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0.38</v>
+        <v>0.382</v>
       </c>
       <c r="O15" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="P15" t="n">
         <v>22.5</v>
@@ -3074,10 +3141,10 @@
         <v>0.755</v>
       </c>
       <c r="R15" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S15" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T15" t="n">
         <v>41.2</v>
@@ -3086,13 +3153,13 @@
         <v>24.1</v>
       </c>
       <c r="V15" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W15" t="n">
         <v>7.4</v>
       </c>
       <c r="X15" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y15" t="n">
         <v>4.6</v>
@@ -3104,13 +3171,13 @@
         <v>19.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.5</v>
+        <v>-6.3</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
@@ -3134,7 +3201,7 @@
         <v>15</v>
       </c>
       <c r="AL15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM15" t="n">
         <v>6</v>
@@ -3143,7 +3210,7 @@
         <v>4</v>
       </c>
       <c r="AO15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP15" t="n">
         <v>19</v>
@@ -3170,13 +3237,13 @@
         <v>20</v>
       </c>
       <c r="AX15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-6-2013-14</t>
+          <t>2014-04-06</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E16" t="n">
         <v>45</v>
       </c>
       <c r="F16" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16" t="n">
-        <v>0.584</v>
+        <v>0.592</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
@@ -3232,7 +3299,7 @@
         <v>37.8</v>
       </c>
       <c r="J16" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K16" t="n">
         <v>0.461</v>
@@ -3244,7 +3311,7 @@
         <v>13.8</v>
       </c>
       <c r="N16" t="n">
-        <v>0.352</v>
+        <v>0.351</v>
       </c>
       <c r="O16" t="n">
         <v>15.1</v>
@@ -3253,16 +3320,16 @@
         <v>20.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.744</v>
+        <v>0.745</v>
       </c>
       <c r="R16" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S16" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="T16" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="U16" t="n">
         <v>21.6</v>
@@ -3286,34 +3353,34 @@
         <v>18.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>95.5</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AE16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF16" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH16" t="n">
         <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ16" t="n">
         <v>23</v>
       </c>
       <c r="AK16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3337,7 +3404,7 @@
         <v>13</v>
       </c>
       <c r="AS16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT16" t="n">
         <v>21</v>
@@ -3352,7 +3419,7 @@
         <v>13</v>
       </c>
       <c r="AX16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY16" t="n">
         <v>19</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-6-2013-14</t>
+          <t>2014-04-06</t>
         </is>
       </c>
     </row>
@@ -3396,55 +3463,55 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F17" t="n">
         <v>23</v>
       </c>
       <c r="G17" t="n">
-        <v>0.697</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
       </c>
       <c r="I17" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="J17" t="n">
-        <v>76.7</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.504</v>
+        <v>0.503</v>
       </c>
       <c r="L17" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M17" t="n">
         <v>22.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.365</v>
+        <v>0.364</v>
       </c>
       <c r="O17" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="P17" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.76</v>
+        <v>0.761</v>
       </c>
       <c r="R17" t="n">
         <v>7.7</v>
       </c>
       <c r="S17" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="T17" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="U17" t="n">
         <v>22.8</v>
@@ -3453,7 +3520,7 @@
         <v>14.7</v>
       </c>
       <c r="W17" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="X17" t="n">
         <v>4.6</v>
@@ -3462,22 +3529,22 @@
         <v>3</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AB17" t="n">
         <v>103</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF17" t="n">
         <v>3</v>
@@ -3489,7 +3556,7 @@
         <v>6</v>
       </c>
       <c r="AI17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3534,7 +3601,7 @@
         <v>2</v>
       </c>
       <c r="AX17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
@@ -3543,7 +3610,7 @@
         <v>8</v>
       </c>
       <c r="BA17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB17" t="n">
         <v>11</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-6-2013-14</t>
+          <t>2014-04-06</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3674,19 +3741,19 @@
         <v>28</v>
       </c>
       <c r="AJ18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK18" t="n">
         <v>26</v>
       </c>
       <c r="AL18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO18" t="n">
         <v>22</v>
@@ -3725,7 +3792,7 @@
         <v>18</v>
       </c>
       <c r="BA18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-6-2013-14</t>
+          <t>2014-04-06</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>3.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AE19" t="n">
         <v>17</v>
@@ -3850,7 +3917,7 @@
         <v>17</v>
       </c>
       <c r="AH19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI19" t="n">
         <v>8</v>
@@ -3910,7 +3977,7 @@
         <v>2</v>
       </c>
       <c r="BB19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-6-2013-14</t>
+          <t>2014-04-06</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E20" t="n">
         <v>32</v>
       </c>
       <c r="F20" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G20" t="n">
-        <v>0.416</v>
+        <v>0.421</v>
       </c>
       <c r="H20" t="n">
         <v>48.5</v>
@@ -3960,10 +4027,10 @@
         <v>37.9</v>
       </c>
       <c r="J20" t="n">
-        <v>82.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="K20" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L20" t="n">
         <v>5.8</v>
@@ -3987,10 +4054,10 @@
         <v>11.5</v>
       </c>
       <c r="S20" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="T20" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U20" t="n">
         <v>21.2</v>
@@ -4008,19 +4075,19 @@
         <v>6.1</v>
       </c>
       <c r="Z20" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AA20" t="n">
         <v>20.4</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC20" t="n">
         <v>-2.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AE20" t="n">
         <v>21</v>
@@ -4035,13 +4102,13 @@
         <v>9</v>
       </c>
       <c r="AI20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ20" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AK20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL20" t="n">
         <v>29</v>
@@ -4062,7 +4129,7 @@
         <v>11</v>
       </c>
       <c r="AR20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS20" t="n">
         <v>25</v>
@@ -4074,7 +4141,7 @@
         <v>18</v>
       </c>
       <c r="AV20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW20" t="n">
         <v>12</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-6-2013-14</t>
+          <t>2014-04-06</t>
         </is>
       </c>
     </row>
@@ -4124,34 +4191,34 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E21" t="n">
         <v>33</v>
       </c>
       <c r="F21" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G21" t="n">
-        <v>0.423</v>
+        <v>0.429</v>
       </c>
       <c r="H21" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I21" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="J21" t="n">
         <v>82.5</v>
       </c>
       <c r="K21" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L21" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M21" t="n">
-        <v>25</v>
+        <v>24.8</v>
       </c>
       <c r="N21" t="n">
         <v>0.372</v>
@@ -4160,7 +4227,7 @@
         <v>15.1</v>
       </c>
       <c r="P21" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="Q21" t="n">
         <v>0.756</v>
@@ -4169,7 +4236,7 @@
         <v>10.7</v>
       </c>
       <c r="S21" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T21" t="n">
         <v>40.5</v>
@@ -4187,7 +4254,7 @@
         <v>4.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Z21" t="n">
         <v>22</v>
@@ -4196,16 +4263,16 @@
         <v>19.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>98.40000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>-1.3</v>
+        <v>-1.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF21" t="n">
         <v>20</v>
@@ -4214,16 +4281,16 @@
         <v>20</v>
       </c>
       <c r="AH21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI21" t="n">
         <v>19</v>
       </c>
       <c r="AJ21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK21" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AL21" t="n">
         <v>6</v>
@@ -4244,7 +4311,7 @@
         <v>17</v>
       </c>
       <c r="AR21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS21" t="n">
         <v>27</v>
@@ -4259,7 +4326,7 @@
         <v>2</v>
       </c>
       <c r="AW21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX21" t="n">
         <v>19</v>
@@ -4271,7 +4338,7 @@
         <v>23</v>
       </c>
       <c r="BA21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB21" t="n">
         <v>21</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-6-2013-14</t>
+          <t>2014-04-06</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E22" t="n">
         <v>55</v>
       </c>
       <c r="F22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G22" t="n">
-        <v>0.724</v>
+        <v>0.733</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
@@ -4327,40 +4394,40 @@
         <v>82.7</v>
       </c>
       <c r="K22" t="n">
-        <v>0.473</v>
+        <v>0.472</v>
       </c>
       <c r="L22" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="M22" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="N22" t="n">
-        <v>0.365</v>
+        <v>0.367</v>
       </c>
       <c r="O22" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="P22" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="Q22" t="n">
         <v>0.806</v>
       </c>
       <c r="R22" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S22" t="n">
         <v>34.2</v>
       </c>
       <c r="T22" t="n">
-        <v>44.9</v>
+        <v>45</v>
       </c>
       <c r="U22" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V22" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W22" t="n">
         <v>8.300000000000001</v>
@@ -4372,19 +4439,19 @@
         <v>3.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AA22" t="n">
         <v>20.3</v>
       </c>
       <c r="AB22" t="n">
-        <v>106.3</v>
+        <v>106.2</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,16 +4463,16 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AJ22" t="n">
         <v>15</v>
       </c>
       <c r="AK22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL22" t="n">
         <v>14</v>
@@ -4420,13 +4487,13 @@
         <v>5</v>
       </c>
       <c r="AP22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ22" t="n">
         <v>2</v>
       </c>
       <c r="AR22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS22" t="n">
         <v>3</v>
@@ -4447,10 +4514,10 @@
         <v>2</v>
       </c>
       <c r="AY22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA22" t="n">
         <v>19</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-6-2013-14</t>
+          <t>2014-04-06</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-5.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
         <v>28</v>
@@ -4623,7 +4690,7 @@
         <v>17</v>
       </c>
       <c r="AW23" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AX23" t="n">
         <v>22</v>
@@ -4638,7 +4705,7 @@
         <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC23" t="n">
         <v>26</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-6-2013-14</t>
+          <t>2014-04-06</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-10.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4760,7 +4827,7 @@
         <v>29</v>
       </c>
       <c r="AH24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI24" t="n">
         <v>17</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-6-2013-14</t>
+          <t>2014-04-06</t>
         </is>
       </c>
     </row>
@@ -4852,28 +4919,28 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E25" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F25" t="n">
         <v>31</v>
       </c>
       <c r="G25" t="n">
-        <v>0.597</v>
+        <v>0.592</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
       </c>
       <c r="I25" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="J25" t="n">
-        <v>83.59999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="K25" t="n">
-        <v>0.463</v>
+        <v>0.461</v>
       </c>
       <c r="L25" t="n">
         <v>9.4</v>
@@ -4882,25 +4949,25 @@
         <v>25.3</v>
       </c>
       <c r="N25" t="n">
-        <v>0.373</v>
+        <v>0.372</v>
       </c>
       <c r="O25" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="P25" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.758</v>
+        <v>0.759</v>
       </c>
       <c r="R25" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S25" t="n">
         <v>31.8</v>
       </c>
       <c r="T25" t="n">
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="U25" t="n">
         <v>19.2</v>
@@ -4921,16 +4988,16 @@
         <v>22.1</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>105.7</v>
+        <v>105.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AE25" t="n">
         <v>10</v>
@@ -4945,22 +5012,22 @@
         <v>24</v>
       </c>
       <c r="AI25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM25" t="n">
         <v>4</v>
       </c>
       <c r="AN25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO25" t="n">
         <v>9</v>
@@ -4972,7 +5039,7 @@
         <v>16</v>
       </c>
       <c r="AR25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS25" t="n">
         <v>16</v>
@@ -4984,13 +5051,13 @@
         <v>29</v>
       </c>
       <c r="AV25" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AW25" t="n">
         <v>8</v>
       </c>
       <c r="AX25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY25" t="n">
         <v>9</v>
@@ -5002,7 +5069,7 @@
         <v>8</v>
       </c>
       <c r="BB25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC25" t="n">
         <v>11</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-6-2013-14</t>
+          <t>2014-04-06</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E26" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F26" t="n">
         <v>28</v>
       </c>
       <c r="G26" t="n">
-        <v>0.641</v>
+        <v>0.636</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
@@ -5055,25 +5122,25 @@
         <v>87</v>
       </c>
       <c r="K26" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L26" t="n">
         <v>9.4</v>
       </c>
       <c r="M26" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="N26" t="n">
-        <v>0.37</v>
+        <v>0.372</v>
       </c>
       <c r="O26" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="P26" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="R26" t="n">
         <v>12.5</v>
@@ -5106,13 +5173,13 @@
         <v>20.7</v>
       </c>
       <c r="AB26" t="n">
-        <v>106.6</v>
+        <v>106.7</v>
       </c>
       <c r="AC26" t="n">
         <v>3.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
@@ -5124,31 +5191,31 @@
         <v>7</v>
       </c>
       <c r="AH26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ26" t="n">
         <v>3</v>
       </c>
       <c r="AK26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AL26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AM26" t="n">
         <v>3</v>
       </c>
       <c r="AN26" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO26" t="n">
         <v>7</v>
       </c>
       <c r="AP26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
@@ -5163,7 +5230,7 @@
         <v>1</v>
       </c>
       <c r="AU26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV26" t="n">
         <v>5</v>
@@ -5181,10 +5248,10 @@
         <v>7</v>
       </c>
       <c r="BA26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC26" t="n">
         <v>8</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-6-2013-14</t>
+          <t>2014-04-06</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E27" t="n">
         <v>27</v>
       </c>
       <c r="F27" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G27" t="n">
-        <v>0.351</v>
+        <v>0.355</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
@@ -5234,31 +5301,31 @@
         <v>36.9</v>
       </c>
       <c r="J27" t="n">
-        <v>82.40000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="K27" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L27" t="n">
         <v>6.1</v>
       </c>
       <c r="M27" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="N27" t="n">
-        <v>0.334</v>
+        <v>0.335</v>
       </c>
       <c r="O27" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="P27" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="Q27" t="n">
         <v>0.761</v>
       </c>
       <c r="R27" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S27" t="n">
         <v>32.3</v>
@@ -5282,40 +5349,40 @@
         <v>5.6</v>
       </c>
       <c r="Z27" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AA27" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.6</v>
+        <v>-2.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
       </c>
       <c r="AF27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG27" t="n">
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI27" t="n">
         <v>21</v>
       </c>
       <c r="AJ27" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AK27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL27" t="n">
         <v>28</v>
@@ -5336,13 +5403,13 @@
         <v>13</v>
       </c>
       <c r="AR27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AS27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU27" t="n">
         <v>30</v>
@@ -5357,10 +5424,10 @@
         <v>27</v>
       </c>
       <c r="AY27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA27" t="n">
         <v>4</v>
@@ -5369,7 +5436,7 @@
         <v>16</v>
       </c>
       <c r="BC27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-6-2013-14</t>
+          <t>2014-04-06</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E28" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F28" t="n">
         <v>17</v>
       </c>
       <c r="G28" t="n">
-        <v>0.779</v>
+        <v>0.776</v>
       </c>
       <c r="H28" t="n">
         <v>48.2</v>
@@ -5416,16 +5483,16 @@
         <v>40.6</v>
       </c>
       <c r="J28" t="n">
-        <v>83</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.49</v>
+        <v>0.489</v>
       </c>
       <c r="L28" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="M28" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="N28" t="n">
         <v>0.4</v>
@@ -5434,10 +5501,10 @@
         <v>15.8</v>
       </c>
       <c r="P28" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.787</v>
+        <v>0.785</v>
       </c>
       <c r="R28" t="n">
         <v>9.199999999999999</v>
@@ -5446,7 +5513,7 @@
         <v>34.1</v>
       </c>
       <c r="T28" t="n">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="U28" t="n">
         <v>25.3</v>
@@ -5470,13 +5537,13 @@
         <v>19.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>105.6</v>
+        <v>105.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5530,13 +5597,13 @@
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW28" t="n">
         <v>19</v>
       </c>
       <c r="AX28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY28" t="n">
         <v>16</v>
@@ -5545,10 +5612,10 @@
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-6-2013-14</t>
+          <t>2014-04-06</t>
         </is>
       </c>
     </row>
@@ -5658,16 +5725,16 @@
         <v>3.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH29" t="n">
         <v>2</v>
@@ -5682,7 +5749,7 @@
         <v>22</v>
       </c>
       <c r="AL29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM29" t="n">
         <v>11</v>
@@ -5694,22 +5761,22 @@
         <v>6</v>
       </c>
       <c r="AP29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR29" t="n">
         <v>14</v>
       </c>
       <c r="AS29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT29" t="n">
         <v>17</v>
       </c>
       <c r="AU29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV29" t="n">
         <v>9</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-6-2013-14</t>
+          <t>2014-04-06</t>
         </is>
       </c>
     </row>
@@ -5762,34 +5829,34 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E30" t="n">
         <v>24</v>
       </c>
       <c r="F30" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G30" t="n">
-        <v>0.312</v>
+        <v>0.316</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
       </c>
       <c r="I30" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="J30" t="n">
-        <v>80.7</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K30" t="n">
         <v>0.442</v>
       </c>
       <c r="L30" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M30" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="N30" t="n">
         <v>0.35</v>
@@ -5798,7 +5865,7 @@
         <v>16.4</v>
       </c>
       <c r="P30" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="Q30" t="n">
         <v>0.747</v>
@@ -5810,37 +5877,37 @@
         <v>30.2</v>
       </c>
       <c r="T30" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="U30" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V30" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W30" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X30" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y30" t="n">
         <v>4.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>-7.1</v>
+        <v>-6.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AE30" t="n">
         <v>26</v>
@@ -5852,7 +5919,7 @@
         <v>26</v>
       </c>
       <c r="AH30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI30" t="n">
         <v>29</v>
@@ -5864,10 +5931,10 @@
         <v>24</v>
       </c>
       <c r="AL30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN30" t="n">
         <v>24</v>
@@ -5888,13 +5955,13 @@
         <v>26</v>
       </c>
       <c r="AT30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU30" t="n">
         <v>27</v>
       </c>
       <c r="AV30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW30" t="n">
         <v>26</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-6-2013-14</t>
+          <t>2014-04-06</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE31" t="n">
         <v>15</v>
@@ -6043,7 +6110,7 @@
         <v>9</v>
       </c>
       <c r="AK31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL31" t="n">
         <v>16</v>
@@ -6052,7 +6119,7 @@
         <v>18</v>
       </c>
       <c r="AN31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO31" t="n">
         <v>28</v>
@@ -6061,10 +6128,10 @@
         <v>26</v>
       </c>
       <c r="AQ31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS31" t="n">
         <v>17</v>
@@ -6082,7 +6149,7 @@
         <v>11</v>
       </c>
       <c r="AX31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY31" t="n">
         <v>7</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-6-2013-14</t>
+          <t>2014-04-06</t>
         </is>
       </c>
     </row>
